--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2675834.533065637</v>
+        <v>2690508.880529887</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230135</v>
+        <v>3254445.780230133</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>224.955318164091</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>231.9261899533541</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -740,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>46.54078016798584</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>126.358590200387</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>237.5752781578165</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.56713651463427</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>115.8746375175634</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.837102735344149</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4655268502615</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>277.5948985960654</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>109.8697240875622</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>173.3543674489279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>14.00946903526156</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>280.2314116558186</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.0868093949487</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>201.7240263704708</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.34162924275135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>190.4812327180526</v>
       </c>
       <c r="G17" t="n">
-        <v>264.8835242011457</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>70.13047785902985</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>228.1641319420652</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>213.9189633675408</v>
+        <v>65.15319810548945</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>41.74748044681605</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>216.9207741058658</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>189.3798266460217</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1150202768096</v>
+        <v>130.5446252133685</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,10 +2414,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H24" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I24" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906287</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S24" t="n">
         <v>143.0320641923714</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>48.86661808248905</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.1476204707264</v>
+        <v>68.36709805779978</v>
       </c>
       <c r="S25" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>222.420212896533</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>136.7813954682721</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I26" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>26.65128432887916</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H27" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I27" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906287</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S27" t="n">
         <v>143.0320641923714</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>64.94488463036203</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>176.7113268623627</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>23.63672627211289</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>130.5446252133676</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,10 +2888,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H30" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I30" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906287</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S30" t="n">
         <v>143.0320641923714</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>105.2574807982731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>183.6318110161375</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I32" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>31.21204198876988</v>
       </c>
       <c r="V32" t="n">
-        <v>215.638494366729</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,10 +3125,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H33" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I33" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906287</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S33" t="n">
         <v>143.0320641923714</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>140.5122218294828</v>
+        <v>143.801664321987</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U34" t="n">
         <v>286.248492634809</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>130.5446252133676</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>207.1818634066925</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H36" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I36" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906287</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S36" t="n">
         <v>143.0320641923714</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>216.4193399632791</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.8016643219871</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>162.0273917842221</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I38" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1150202768096</v>
+        <v>5.162574081601942</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H39" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906287</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>135.6769752478862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>82.13607885062071</v>
       </c>
       <c r="S40" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>207.181863406693</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1150202768096</v>
+        <v>247.8209633983751</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H42" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I42" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906286</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384767</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.420212896533</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.860386108152451</v>
+        <v>143.8016643219879</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>118.9793587076018</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3994,10 +3994,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H44" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.33258322459722</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
-        <v>31.21204198876898</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H45" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543409</v>
       </c>
       <c r="I45" t="n">
-        <v>36.28891401906289</v>
+        <v>36.28891401906286</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.388042077384824</v>
+        <v>4.388042077384767</v>
       </c>
       <c r="S45" t="n">
         <v>143.0320641923714</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>249.5053449992467</v>
       </c>
       <c r="W46" t="n">
-        <v>206.6321074296356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E2" t="n">
-        <v>728.6161971483371</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F2" t="n">
-        <v>721.6706963991336</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>478.2219197550335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>668.2068788942177</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C3" t="n">
-        <v>668.2068788942177</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4451,10 +4451,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y3" t="n">
-        <v>836.4222159142857</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="4">
@@ -4479,7 +4479,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>502.8591282797204</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
         <v>20.03527576299844</v>
@@ -4652,7 +4652,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>486.8488635328713</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="T6" t="n">
-        <v>934.7112791079849</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="U6" t="n">
-        <v>706.487660844374</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="V6" t="n">
-        <v>471.3355526126313</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>208.1618995887604</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>787.9255531013317</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C9" t="n">
-        <v>613.4725238202047</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D9" t="n">
-        <v>464.5381141589534</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,7 +4892,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>956.1408901213997</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>956.1408901213997</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="10">
@@ -4941,28 +4941,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2196.616170759898</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.653653819486</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D11" t="n">
-        <v>1469.387955212736</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E11" t="n">
-        <v>1083.599702614492</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F11" t="n">
-        <v>672.6137978248842</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662052</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331026</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331026</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331026</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V11" t="n">
-        <v>3699.589756331026</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W11" t="n">
-        <v>3346.821101060912</v>
+        <v>2847.640608949067</v>
       </c>
       <c r="X11" t="n">
-        <v>2973.355342799832</v>
+        <v>2474.174850687987</v>
       </c>
       <c r="Y11" t="n">
-        <v>2583.21601082402</v>
+        <v>2084.035518712175</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
         <v>220.8126299914996</v>
@@ -5117,25 +5117,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K12" t="n">
-        <v>157.3616934996499</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L12" t="n">
-        <v>661.7232333657678</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.268582832872</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N12" t="n">
-        <v>1975.474275085654</v>
+        <v>1760.484767905933</v>
       </c>
       <c r="O12" t="n">
-        <v>2524.910283838376</v>
+        <v>2309.920776658655</v>
       </c>
       <c r="P12" t="n">
         <v>2633.599911365674</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.5986401312371</v>
+        <v>372.0215281213493</v>
       </c>
       <c r="C13" t="n">
-        <v>242.5986401312371</v>
+        <v>372.0215281213493</v>
       </c>
       <c r="D13" t="n">
-        <v>242.5986401312371</v>
+        <v>221.9048887090136</v>
       </c>
       <c r="E13" t="n">
-        <v>242.5986401312371</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F13" t="n">
-        <v>242.5986401312371</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
         <v>1070.508157165603</v>
@@ -5226,25 +5226,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>866.4861918383683</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="T13" t="n">
-        <v>866.4861918383683</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="U13" t="n">
-        <v>866.4861918383683</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="V13" t="n">
-        <v>691.3807701727845</v>
+        <v>386.1725069448458</v>
       </c>
       <c r="W13" t="n">
-        <v>691.3807701727845</v>
+        <v>372.0215281213493</v>
       </c>
       <c r="X13" t="n">
-        <v>463.3912192747672</v>
+        <v>372.0215281213493</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.5986401312371</v>
+        <v>372.0215281213493</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1776.509221818346</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C14" t="n">
-        <v>1407.546704877934</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.546704877934</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E14" t="n">
-        <v>1021.75845227969</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F14" t="n">
-        <v>610.7725474900825</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403565</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604012</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
         <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
         <v>3454.413795556125</v>
@@ -5308,22 +5308,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095565</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U14" t="n">
-        <v>3328.574857095565</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V14" t="n">
-        <v>2997.511969751994</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="W14" t="n">
-        <v>2644.74331448188</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="X14" t="n">
-        <v>2271.2775562208</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="Y14" t="n">
-        <v>2163.109061882468</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
         <v>220.8126299914996</v>
@@ -5354,25 +5354,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K15" t="n">
-        <v>141.599614789977</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L15" t="n">
-        <v>645.9611546560949</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.506504123199</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.712196375981</v>
+        <v>2221.532781018433</v>
       </c>
       <c r="O15" t="n">
-        <v>2509.148205128703</v>
+        <v>2381.045093687193</v>
       </c>
       <c r="P15" t="n">
         <v>2633.599911365674</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>840.4177801973885</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="C16" t="n">
-        <v>671.4815972694817</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="D16" t="n">
-        <v>521.3649578571459</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="E16" t="n">
-        <v>521.3649578571459</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="F16" t="n">
-        <v>521.3649578571459</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="G16" t="n">
-        <v>352.7581128525293</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="H16" t="n">
         <v>198.5034697522943</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
         <v>1070.508157165603</v>
@@ -5469,19 +5469,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585963</v>
+        <v>870.1648337875072</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.926476585963</v>
+        <v>870.1648337875072</v>
       </c>
       <c r="W16" t="n">
-        <v>1073.926476585963</v>
+        <v>580.7476637505465</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.926476585963</v>
+        <v>352.7581128525292</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.066245027628</v>
+        <v>352.7581128525292</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1865.553283416327</v>
+        <v>2114.72444583688</v>
       </c>
       <c r="C17" t="n">
-        <v>1496.590766475915</v>
+        <v>1745.761928896469</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.325067869165</v>
+        <v>1387.496230289718</v>
       </c>
       <c r="E17" t="n">
-        <v>752.5368152709207</v>
+        <v>1001.707977691474</v>
       </c>
       <c r="F17" t="n">
-        <v>341.5509104813131</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G17" t="n">
-        <v>73.99179512662052</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
         <v>1850.62987638991</v>
@@ -5530,10 +5530,10 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
         <v>3699.589756331025</v>
@@ -5545,22 +5545,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>3231.098191343886</v>
       </c>
       <c r="V17" t="n">
-        <v>3368.526868987455</v>
+        <v>3231.098191343886</v>
       </c>
       <c r="W17" t="n">
-        <v>3015.75821371734</v>
+        <v>2878.329536073772</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.292455456261</v>
+        <v>2504.863777812692</v>
       </c>
       <c r="Y17" t="n">
-        <v>2252.153123480449</v>
+        <v>2114.72444583688</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
         <v>220.8126299914996</v>
@@ -5591,28 +5591,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835159</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468724</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L18" t="n">
-        <v>397.4884646625656</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M18" t="n">
-        <v>1038.03381412967</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N18" t="n">
-        <v>1711.239506382451</v>
+        <v>1746.983830418315</v>
       </c>
       <c r="O18" t="n">
-        <v>2260.675515135174</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.336852567651</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230479</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P19" t="n">
         <v>1070.508157165603</v>
@@ -5700,25 +5700,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1003.08761006169</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983277</v>
+        <v>777.4584133740548</v>
       </c>
       <c r="U19" t="n">
-        <v>559.1451034760075</v>
+        <v>777.4584133740548</v>
       </c>
       <c r="V19" t="n">
-        <v>304.4606152701207</v>
+        <v>522.7739251681679</v>
       </c>
       <c r="W19" t="n">
-        <v>73.99179512662052</v>
+        <v>522.7739251681679</v>
       </c>
       <c r="X19" t="n">
-        <v>73.99179512662052</v>
+        <v>294.7843742701506</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2333.305065052698</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C20" t="n">
-        <v>1964.342548112286</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D20" t="n">
-        <v>1606.076849505535</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.288596907291</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F20" t="n">
-        <v>809.3026921176836</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J20" t="n">
         <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N20" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556125</v>
@@ -5782,22 +5782,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>3231.098191343886</v>
       </c>
       <c r="V20" t="n">
-        <v>3699.589756331025</v>
+        <v>3231.098191343886</v>
       </c>
       <c r="W20" t="n">
-        <v>3483.509995353711</v>
+        <v>3165.28688012622</v>
       </c>
       <c r="X20" t="n">
-        <v>3110.044237092631</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="Y20" t="n">
-        <v>2719.904905116819</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M21" t="n">
-        <v>1205.938327510047</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.5034697522943</v>
+        <v>673.1661187194946</v>
       </c>
       <c r="C22" t="n">
-        <v>198.5034697522943</v>
+        <v>673.1661187194946</v>
       </c>
       <c r="D22" t="n">
-        <v>198.5034697522943</v>
+        <v>523.0494793071589</v>
       </c>
       <c r="E22" t="n">
-        <v>198.5034697522943</v>
+        <v>375.1363857247658</v>
       </c>
       <c r="F22" t="n">
-        <v>198.5034697522943</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G22" t="n">
-        <v>198.5034697522943</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H22" t="n">
-        <v>198.5034697522943</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165603</v>
@@ -5940,22 +5940,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>1031.757304417462</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>742.6051279951417</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V22" t="n">
-        <v>487.9206397892549</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W22" t="n">
-        <v>198.5034697522943</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X22" t="n">
-        <v>198.5034697522943</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.5034697522943</v>
+        <v>854.8145835497344</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2026.701708859132</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C23" t="n">
-        <v>1657.739191918721</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.47349331197</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E23" t="n">
-        <v>913.685240713726</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F23" t="n">
-        <v>502.6993359241185</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G23" t="n">
-        <v>86.11364943189744</v>
+        <v>399.1946814616589</v>
       </c>
       <c r="H23" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I23" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826244</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L23" t="n">
         <v>1413.055650717816</v>
@@ -6010,31 +6010,31 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q23" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R23" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S23" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="T23" t="n">
-        <v>4114.389717406972</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="U23" t="n">
-        <v>3860.738181773831</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="V23" t="n">
-        <v>3529.67529443026</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W23" t="n">
-        <v>3176.906639160146</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X23" t="n">
-        <v>2803.440880899066</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y23" t="n">
-        <v>2413.301548923254</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I24" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J24" t="n">
-        <v>229.6488472869304</v>
+        <v>203.2333627984877</v>
       </c>
       <c r="K24" t="n">
-        <v>601.5942054859402</v>
+        <v>575.1787209974975</v>
       </c>
       <c r="L24" t="n">
-        <v>795.9930949290417</v>
+        <v>769.5776104405992</v>
       </c>
       <c r="M24" t="n">
-        <v>1246.441699827099</v>
+        <v>1015.788813389716</v>
       </c>
       <c r="N24" t="n">
-        <v>1988.126976209845</v>
+        <v>1282.925139172345</v>
       </c>
       <c r="O24" t="n">
-        <v>2210.284729784828</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P24" t="n">
         <v>2369.252846559001</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>304.4100526451468</v>
+        <v>524.4860959378443</v>
       </c>
       <c r="C25" t="n">
-        <v>135.4738697172399</v>
+        <v>524.4860959378443</v>
       </c>
       <c r="D25" t="n">
-        <v>135.4738697172399</v>
+        <v>524.4860959378443</v>
       </c>
       <c r="E25" t="n">
-        <v>135.4738697172399</v>
+        <v>524.4860959378443</v>
       </c>
       <c r="F25" t="n">
-        <v>135.4738697172399</v>
+        <v>524.4860959378443</v>
       </c>
       <c r="G25" t="n">
-        <v>135.4738697172399</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="H25" t="n">
-        <v>135.4738697172399</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I25" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J25" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K25" t="n">
         <v>212.8076375348879</v>
       </c>
       <c r="L25" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962465</v>
       </c>
       <c r="M25" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620231</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692337</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841303</v>
@@ -6168,31 +6168,31 @@
         <v>1267.373942480779</v>
       </c>
       <c r="Q25" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R25" t="n">
-        <v>1168.92515553596</v>
+        <v>1220.218612518714</v>
       </c>
       <c r="S25" t="n">
-        <v>965.4098873949431</v>
+        <v>1220.218612518714</v>
       </c>
       <c r="T25" t="n">
-        <v>740.7430056812734</v>
+        <v>995.5517308050446</v>
       </c>
       <c r="U25" t="n">
-        <v>740.7430056812734</v>
+        <v>995.5517308050446</v>
       </c>
       <c r="V25" t="n">
-        <v>486.0585174753866</v>
+        <v>995.5517308050446</v>
       </c>
       <c r="W25" t="n">
-        <v>486.0585174753866</v>
+        <v>706.134560768084</v>
       </c>
       <c r="X25" t="n">
-        <v>486.0585174753866</v>
+        <v>706.134560768084</v>
       </c>
       <c r="Y25" t="n">
-        <v>486.0585174753866</v>
+        <v>706.134560768084</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J26" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826243</v>
       </c>
       <c r="K26" t="n">
-        <v>782.5847574885288</v>
+        <v>782.584757488529</v>
       </c>
       <c r="L26" t="n">
         <v>1413.055650717816</v>
@@ -6259,19 +6259,19 @@
         <v>3948.306990405677</v>
       </c>
       <c r="U26" t="n">
-        <v>3694.655454772535</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="V26" t="n">
-        <v>3694.655454772535</v>
+        <v>3617.244103062106</v>
       </c>
       <c r="W26" t="n">
-        <v>3341.886799502421</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X26" t="n">
-        <v>2968.421041241341</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y26" t="n">
-        <v>2578.28170926553</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G27" t="n">
         <v>221.0905542041166</v>
@@ -6305,19 +6305,19 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J27" t="n">
-        <v>203.2333627984878</v>
+        <v>226.0251170320251</v>
       </c>
       <c r="K27" t="n">
-        <v>575.1787209974976</v>
+        <v>597.9704752310349</v>
       </c>
       <c r="L27" t="n">
-        <v>769.5776104405992</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M27" t="n">
-        <v>1015.788813389716</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N27" t="n">
-        <v>1282.925139172345</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O27" t="n">
         <v>1895.006588831291</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.4288657759973</v>
+        <v>390.4338439653902</v>
       </c>
       <c r="C28" t="n">
-        <v>821.4926828480905</v>
+        <v>390.4338439653902</v>
       </c>
       <c r="D28" t="n">
-        <v>671.3760434357547</v>
+        <v>240.3172045530545</v>
       </c>
       <c r="E28" t="n">
-        <v>671.3760434357547</v>
+        <v>240.3172045530545</v>
       </c>
       <c r="F28" t="n">
-        <v>524.4860959378443</v>
+        <v>240.3172045530545</v>
       </c>
       <c r="G28" t="n">
-        <v>356.1044735867089</v>
+        <v>240.3172045530545</v>
       </c>
       <c r="H28" t="n">
-        <v>203.8522646237892</v>
+        <v>88.06499559013481</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013481</v>
       </c>
       <c r="J28" t="n">
         <v>86.11364943189744</v>
@@ -6408,28 +6408,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R28" t="n">
-        <v>1168.92515553596</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S28" t="n">
-        <v>1168.92515553596</v>
+        <v>1223.67539375855</v>
       </c>
       <c r="T28" t="n">
-        <v>1168.92515553596</v>
+        <v>1223.67539375855</v>
       </c>
       <c r="U28" t="n">
-        <v>1168.92515553596</v>
+        <v>934.5355022082377</v>
       </c>
       <c r="V28" t="n">
-        <v>1168.92515553596</v>
+        <v>679.8510140023509</v>
       </c>
       <c r="W28" t="n">
-        <v>1168.92515553596</v>
+        <v>390.4338439653902</v>
       </c>
       <c r="X28" t="n">
-        <v>990.4288657759973</v>
+        <v>390.4338439653902</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.4288657759973</v>
+        <v>390.4338439653902</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2339.782740888894</v>
+        <v>1981.517042282143</v>
       </c>
       <c r="C29" t="n">
-        <v>1970.820223948482</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="D29" t="n">
         <v>1612.554525341732</v>
@@ -6454,19 +6454,19 @@
         <v>815.7803679538799</v>
       </c>
       <c r="G29" t="n">
-        <v>399.1946814616588</v>
+        <v>399.1946814616589</v>
       </c>
       <c r="H29" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I29" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826242</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K29" t="n">
-        <v>782.5847574885289</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L29" t="n">
         <v>1413.055650717816</v>
@@ -6484,31 +6484,31 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R29" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S29" t="n">
-        <v>4305.682471594872</v>
+        <v>4281.806990511931</v>
       </c>
       <c r="T29" t="n">
-        <v>4305.682471594872</v>
+        <v>4069.205050829983</v>
       </c>
       <c r="U29" t="n">
-        <v>4173.819213803592</v>
+        <v>3815.553515196842</v>
       </c>
       <c r="V29" t="n">
-        <v>3842.756326460022</v>
+        <v>3484.490627853271</v>
       </c>
       <c r="W29" t="n">
-        <v>3489.987671189907</v>
+        <v>3131.721972583157</v>
       </c>
       <c r="X29" t="n">
-        <v>3116.521912928828</v>
+        <v>2758.256214322077</v>
       </c>
       <c r="Y29" t="n">
-        <v>2726.382580953016</v>
+        <v>2368.116882346265</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I30" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J30" t="n">
-        <v>203.2333627984878</v>
+        <v>226.0251170320251</v>
       </c>
       <c r="K30" t="n">
-        <v>575.1787209974976</v>
+        <v>597.9704752310349</v>
       </c>
       <c r="L30" t="n">
-        <v>769.5776104405992</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M30" t="n">
-        <v>1015.788813389716</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N30" t="n">
-        <v>1282.925139172345</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O30" t="n">
         <v>1895.006588831291</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.845692452785</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="C31" t="n">
-        <v>552.5250047777616</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="D31" t="n">
-        <v>402.4083653654259</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="E31" t="n">
-        <v>254.4952717830328</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="F31" t="n">
-        <v>254.4952717830328</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="G31" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="I31" t="n">
-        <v>86.11364943189744</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="J31" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K31" t="n">
         <v>212.8076375348879</v>
       </c>
       <c r="L31" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962465</v>
       </c>
       <c r="M31" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620231</v>
       </c>
       <c r="N31" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692337</v>
       </c>
       <c r="O31" t="n">
         <v>1115.228778841303</v>
@@ -6642,31 +6642,31 @@
         <v>1267.373942480779</v>
       </c>
       <c r="Q31" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R31" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.92515553596</v>
       </c>
       <c r="S31" t="n">
-        <v>1289.276287324572</v>
+        <v>965.4098873949436</v>
       </c>
       <c r="T31" t="n">
-        <v>1289.276287324572</v>
+        <v>779.9232096008652</v>
       </c>
       <c r="U31" t="n">
-        <v>1289.276287324572</v>
+        <v>779.9232096008652</v>
       </c>
       <c r="V31" t="n">
-        <v>1289.276287324572</v>
+        <v>779.9232096008652</v>
       </c>
       <c r="W31" t="n">
-        <v>1289.276287324572</v>
+        <v>490.5060395639047</v>
       </c>
       <c r="X31" t="n">
-        <v>1061.286736426555</v>
+        <v>490.5060395639047</v>
       </c>
       <c r="Y31" t="n">
-        <v>840.4941572830247</v>
+        <v>269.7134604203745</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J32" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826243</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885288</v>
+        <v>782.584757488529</v>
       </c>
       <c r="L32" t="n">
         <v>1413.055650717816</v>
@@ -6727,13 +6727,13 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S32" t="n">
-        <v>4160.908930087624</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="T32" t="n">
-        <v>4160.908930087624</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="U32" t="n">
-        <v>4160.908930087624</v>
+        <v>4274.155156454701</v>
       </c>
       <c r="V32" t="n">
         <v>3943.09226911113</v>
@@ -6767,7 +6767,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G33" t="n">
         <v>221.0905542041166</v>
@@ -6779,22 +6779,22 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J33" t="n">
-        <v>229.6488472869304</v>
+        <v>226.0251170320251</v>
       </c>
       <c r="K33" t="n">
-        <v>601.5942054859402</v>
+        <v>597.9704752310349</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.125036779466</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M33" t="n">
-        <v>1409.336239728584</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N33" t="n">
-        <v>1676.472565511212</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O33" t="n">
-        <v>1898.630319086196</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P33" t="n">
         <v>2369.252846559001</v>
@@ -6885,19 +6885,19 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S34" t="n">
-        <v>1147.344750123074</v>
+        <v>1144.022080938727</v>
       </c>
       <c r="T34" t="n">
-        <v>1147.344750123074</v>
+        <v>919.355199225057</v>
       </c>
       <c r="U34" t="n">
-        <v>858.2048585727622</v>
+        <v>630.215307674745</v>
       </c>
       <c r="V34" t="n">
-        <v>603.5203703668753</v>
+        <v>375.5308194688581</v>
       </c>
       <c r="W34" t="n">
-        <v>314.1032003299148</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="X34" t="n">
         <v>86.11364943189744</v>
@@ -6937,16 +6937,16 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5202242826244</v>
+        <v>316.5202242826243</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885292</v>
+        <v>782.584757488529</v>
       </c>
       <c r="L35" t="n">
         <v>1413.055650717816</v>
       </c>
       <c r="M35" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N35" t="n">
         <v>2846.29748293078</v>
@@ -6970,7 +6970,7 @@
         <v>4305.682471594872</v>
       </c>
       <c r="U35" t="n">
-        <v>4173.819213803592</v>
+        <v>4052.030935961731</v>
       </c>
       <c r="V35" t="n">
         <v>3842.756326460022</v>
@@ -7004,7 +7004,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G36" t="n">
         <v>221.0905542041166</v>
@@ -7016,22 +7016,22 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J36" t="n">
-        <v>104.8187222999257</v>
+        <v>226.0251170320251</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9434958564827</v>
+        <v>597.9704752310349</v>
       </c>
       <c r="L36" t="n">
-        <v>623.8077382816371</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M36" t="n">
-        <v>1331.066954343254</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N36" t="n">
-        <v>1598.203280125882</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O36" t="n">
-        <v>2210.284729784828</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P36" t="n">
         <v>2369.252846559001</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.11364943189744</v>
+        <v>556.8641201582883</v>
       </c>
       <c r="C37" t="n">
-        <v>86.11364943189744</v>
+        <v>556.8641201582883</v>
       </c>
       <c r="D37" t="n">
-        <v>86.11364943189744</v>
+        <v>406.7474807459525</v>
       </c>
       <c r="E37" t="n">
-        <v>86.11364943189744</v>
+        <v>406.7474807459525</v>
       </c>
       <c r="F37" t="n">
-        <v>86.11364943189744</v>
+        <v>406.7474807459525</v>
       </c>
       <c r="G37" t="n">
-        <v>86.11364943189744</v>
+        <v>238.3658583948171</v>
       </c>
       <c r="H37" t="n">
         <v>86.11364943189744</v>
@@ -7131,16 +7131,16 @@
         <v>775.4695140605904</v>
       </c>
       <c r="V37" t="n">
-        <v>520.7850258547036</v>
+        <v>556.8641201582883</v>
       </c>
       <c r="W37" t="n">
-        <v>231.367855817743</v>
+        <v>556.8641201582883</v>
       </c>
       <c r="X37" t="n">
-        <v>86.11364943189744</v>
+        <v>556.8641201582883</v>
       </c>
       <c r="Y37" t="n">
-        <v>86.11364943189744</v>
+        <v>556.8641201582883</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2217.994463047033</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C38" t="n">
-        <v>1849.031946106621</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D38" t="n">
-        <v>1490.766247499871</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E38" t="n">
         <v>1327.102215394596</v>
@@ -7171,13 +7171,13 @@
         <v>186.4495920830057</v>
       </c>
       <c r="I38" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826242</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K38" t="n">
-        <v>782.5847574885289</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L38" t="n">
         <v>1413.055650717816</v>
@@ -7195,31 +7195,31 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q38" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R38" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S38" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="T38" t="n">
-        <v>4305.682471594872</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U38" t="n">
-        <v>4052.030935961731</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="V38" t="n">
-        <v>3720.968048618161</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="W38" t="n">
-        <v>3368.199393348046</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X38" t="n">
-        <v>2994.733635086966</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y38" t="n">
-        <v>2604.594303111155</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I39" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J39" t="n">
-        <v>229.6488472869304</v>
+        <v>180.8147509818603</v>
       </c>
       <c r="K39" t="n">
-        <v>601.5942054859402</v>
+        <v>552.7601091808701</v>
       </c>
       <c r="L39" t="n">
-        <v>795.9930949290417</v>
+        <v>747.1589986239718</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.252310990659</v>
+        <v>1454.418214685589</v>
       </c>
       <c r="N39" t="n">
         <v>2196.103491068335</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>541.6593609407082</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="C40" t="n">
-        <v>541.6593609407082</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="D40" t="n">
-        <v>391.5427215283725</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="E40" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F40" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J40" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K40" t="n">
         <v>212.8076375348879</v>
       </c>
       <c r="L40" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962465</v>
       </c>
       <c r="M40" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620231</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692337</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841303</v>
@@ -7353,31 +7353,31 @@
         <v>1267.373942480779</v>
       </c>
       <c r="Q40" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R40" t="n">
-        <v>1289.276287324572</v>
+        <v>1206.310551111824</v>
       </c>
       <c r="S40" t="n">
-        <v>1085.761019183556</v>
+        <v>1002.795282970808</v>
       </c>
       <c r="T40" t="n">
-        <v>1085.761019183556</v>
+        <v>778.1284012571381</v>
       </c>
       <c r="U40" t="n">
-        <v>1085.761019183556</v>
+        <v>778.1284012571381</v>
       </c>
       <c r="V40" t="n">
-        <v>831.0765309776688</v>
+        <v>523.4439130512512</v>
       </c>
       <c r="W40" t="n">
-        <v>541.6593609407082</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="X40" t="n">
-        <v>541.6593609407082</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="Y40" t="n">
-        <v>541.6593609407082</v>
+        <v>234.0267430142906</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>815.7803679538799</v>
       </c>
       <c r="G41" t="n">
-        <v>399.1946814616588</v>
+        <v>399.1946814616589</v>
       </c>
       <c r="H41" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I41" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J41" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K41" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L41" t="n">
         <v>1413.055650717816</v>
@@ -7432,16 +7432,16 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q41" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R41" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S41" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="T41" t="n">
-        <v>4096.407862093162</v>
+        <v>4093.080531912926</v>
       </c>
       <c r="U41" t="n">
         <v>3842.756326460022</v>
@@ -7487,28 +7487,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I42" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J42" t="n">
-        <v>229.6488472869304</v>
+        <v>180.81475098186</v>
       </c>
       <c r="K42" t="n">
-        <v>344.7835943223799</v>
+        <v>552.7601091808699</v>
       </c>
       <c r="L42" t="n">
-        <v>539.1824837654815</v>
+        <v>747.1589986239717</v>
       </c>
       <c r="M42" t="n">
-        <v>1246.441699827099</v>
+        <v>1454.418214685589</v>
       </c>
       <c r="N42" t="n">
-        <v>1988.126976209845</v>
+        <v>2196.103491068335</v>
       </c>
       <c r="O42" t="n">
-        <v>2210.284729784828</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P42" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q42" t="n">
         <v>2633.576141175236</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="C43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="D43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="E43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K43" t="n">
-        <v>212.8076375348879</v>
+        <v>212.807637534888</v>
       </c>
       <c r="L43" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962466</v>
       </c>
       <c r="M43" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620233</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692336</v>
+        <v>909.933185669234</v>
       </c>
       <c r="O43" t="n">
-        <v>1115.228778841303</v>
+        <v>1115.228778841304</v>
       </c>
       <c r="P43" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.37394248078</v>
       </c>
       <c r="Q43" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R43" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S43" t="n">
-        <v>1085.761019183556</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="T43" t="n">
-        <v>861.0941374698859</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U43" t="n">
-        <v>861.0941374698859</v>
+        <v>775.4695140605913</v>
       </c>
       <c r="V43" t="n">
-        <v>606.4096492639991</v>
+        <v>520.7850258547045</v>
       </c>
       <c r="W43" t="n">
-        <v>316.9924792270385</v>
+        <v>231.3678558177439</v>
       </c>
       <c r="X43" t="n">
-        <v>89.00292832902113</v>
+        <v>231.3678558177439</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2440.118683540002</v>
+        <v>2127.037651510241</v>
       </c>
       <c r="C44" t="n">
-        <v>2071.156166599591</v>
+        <v>1758.075134569829</v>
       </c>
       <c r="D44" t="n">
-        <v>1712.89046799284</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E44" t="n">
-        <v>1327.102215394596</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F44" t="n">
-        <v>916.1163106049881</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G44" t="n">
-        <v>499.5306241127671</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="H44" t="n">
         <v>186.4495920830057</v>
       </c>
       <c r="I44" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5202242826242</v>
+        <v>316.5202242826243</v>
       </c>
       <c r="K44" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L44" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M44" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N44" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O44" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996239</v>
       </c>
       <c r="P44" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614952</v>
       </c>
       <c r="Q44" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373409</v>
       </c>
       <c r="R44" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S44" t="n">
-        <v>4305.682471594871</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="T44" t="n">
-        <v>4305.682471594871</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U44" t="n">
-        <v>4274.155156454701</v>
+        <v>3694.655454772536</v>
       </c>
       <c r="V44" t="n">
-        <v>3943.09226911113</v>
+        <v>3363.592567428966</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.323613841016</v>
+        <v>3010.823912158851</v>
       </c>
       <c r="X44" t="n">
-        <v>3216.857855579936</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y44" t="n">
-        <v>2826.718523604124</v>
+        <v>2247.21882192196</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I45" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J45" t="n">
-        <v>104.8187222999256</v>
+        <v>226.0251170320245</v>
       </c>
       <c r="K45" t="n">
-        <v>270.2534218466019</v>
+        <v>597.9704752310345</v>
       </c>
       <c r="L45" t="n">
-        <v>831.7842531401279</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M45" t="n">
-        <v>1539.043469201745</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N45" t="n">
-        <v>1806.179794984373</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O45" t="n">
-        <v>2418.261244643319</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P45" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q45" t="n">
         <v>2633.576141175236</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>423.4314547109398</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="C46" t="n">
-        <v>254.4952717830328</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="D46" t="n">
-        <v>254.4952717830328</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="E46" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F46" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J46" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K46" t="n">
-        <v>212.8076375348878</v>
+        <v>212.807637534888</v>
       </c>
       <c r="L46" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962466</v>
       </c>
       <c r="M46" t="n">
-        <v>670.3304700620229</v>
+        <v>670.3304700620233</v>
       </c>
       <c r="N46" t="n">
-        <v>909.9331856692334</v>
+        <v>909.933185669234</v>
       </c>
       <c r="O46" t="n">
-        <v>1115.228778841303</v>
+        <v>1115.228778841304</v>
       </c>
       <c r="P46" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.37394248078</v>
       </c>
       <c r="Q46" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R46" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S46" t="n">
-        <v>1289.276287324572</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="T46" t="n">
-        <v>1289.276287324572</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U46" t="n">
-        <v>1289.276287324572</v>
+        <v>775.4695140605913</v>
       </c>
       <c r="V46" t="n">
-        <v>1034.591799118685</v>
+        <v>523.4439130512512</v>
       </c>
       <c r="W46" t="n">
-        <v>825.8724986847096</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="X46" t="n">
-        <v>825.8724986847096</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="Y46" t="n">
-        <v>605.0799195411795</v>
+        <v>234.0267430142906</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928668</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K12" t="n">
-        <v>15.92129162593218</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>217.1611183633543</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928668</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15.92129162593248</v>
+        <v>145.3183738900836</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1979795937001</v>
       </c>
       <c r="P18" t="n">
-        <v>56.8265190350622</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>48.1056061726409</v>
+        <v>378.0407240669703</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>99.40872777632524</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>206.3004060090299</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>99.40872777632541</v>
+        <v>122.4307017495954</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>99.40872777632541</v>
+        <v>122.4307017495953</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>122.4307017495954</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>314.8024350491239</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>122.4307017495954</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>216.6316696788412</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>76.76366533528747</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>430.0150043384325</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>76.76366533528709</v>
       </c>
       <c r="K42" t="n">
-        <v>5.060579271608617</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729815</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>122.4307017495947</v>
       </c>
       <c r="K45" t="n">
-        <v>55.86861211123161</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>135.3220053498714</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>239.3712446298508</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -23439,7 +23439,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>78.78327587490008</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>272.5135293013294</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>47.52084681431626</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.1511292611049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
@@ -23709,19 +23709,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>84.53662828762623</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>167.2430241093434</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>216.3948130236589</v>
       </c>
       <c r="G17" t="n">
-        <v>148.0333797447911</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>118.4960408938906</v>
@@ -23785,13 +23785,13 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>135.2354040410888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>58.35886639452585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>135.3220053498722</v>
+        <v>284.0877706119236</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>181.6254242739427</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>1.663879246228959</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T23" t="n">
-        <v>21.09609363910624</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>120.5703950634411</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.6946109574838</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>50.78052241292662</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>245.9524461952085</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>322.5896843885338</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655007</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
-        <v>201.4801154596064</v>
+        <v>136.5352308292444</v>
       </c>
       <c r="T28" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>48.99832852667444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.3258060921758</v>
+        <v>119.6890798200629</v>
       </c>
       <c r="T29" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>120.570395063442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>61.98934030035473</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
         <v>150.7296868732905</v>
@@ -24861,7 +24861,7 @@
         <v>116.5612290399728</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655007</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.420212896533</v>
+        <v>38.78840188039544</v>
       </c>
       <c r="U31" t="n">
         <v>286.248492634809</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T32" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1150202768096</v>
+        <v>219.9029782880397</v>
       </c>
       <c r="V32" t="n">
-        <v>112.1137641034059</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>116.5612290399728</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S34" t="n">
-        <v>60.9678936301236</v>
+        <v>57.67845113761942</v>
       </c>
       <c r="T34" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>120.570395063442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>120.5703950634424</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>116.5612290399728</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>35.7183033605489</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>81.90799106705009</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9029782880397</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>245.9524461952076</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>10.75698739868295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H40" t="n">
         <v>150.7296868732905</v>
@@ -25572,7 +25572,7 @@
         <v>116.5612290399728</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.1476204707264</v>
+        <v>37.01154162010569</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.248492634809</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
-        <v>3.294056878435015</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.294056878434503</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25809,7 +25809,7 @@
         <v>116.5612290399728</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696654965</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>215.7242672439423</v>
+        <v>74.78298903010685</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>263.7544829558788</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9029782880406</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H46" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I46" t="n">
-        <v>116.5612290399729</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J46" t="n">
-        <v>1.931832696655022</v>
+        <v>1.931832696654965</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T46" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2.632298324581313</v>
       </c>
       <c r="W46" t="n">
-        <v>79.89089090695541</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674652.0349275207</v>
+        <v>674652.0349275206</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674652.0349275207</v>
+        <v>674652.0349275208</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>727949.8667556799</v>
+        <v>727949.8667556801</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>727949.8667556801</v>
+        <v>727949.8667556799</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>727949.8667556799</v>
+        <v>727949.8667556801</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>727949.8667556798</v>
+        <v>727949.8667556801</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>523490.2663246511</v>
+        <v>523490.266324651</v>
       </c>
       <c r="F2" t="n">
         <v>523490.2663246512</v>
       </c>
       <c r="G2" t="n">
-        <v>523490.2663246511</v>
+        <v>523490.266324651</v>
       </c>
       <c r="H2" t="n">
         <v>523490.2663246512</v>
       </c>
       <c r="I2" t="n">
+        <v>566606.1503209858</v>
+      </c>
+      <c r="J2" t="n">
         <v>566606.1503209857</v>
       </c>
-      <c r="J2" t="n">
-        <v>566606.1503209858</v>
-      </c>
       <c r="K2" t="n">
-        <v>566606.1503209858</v>
+        <v>566606.1503209857</v>
       </c>
       <c r="L2" t="n">
         <v>566606.1503209857</v>
       </c>
       <c r="M2" t="n">
+        <v>566606.1503209859</v>
+      </c>
+      <c r="N2" t="n">
         <v>566606.1503209858</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566606.1503209859</v>
       </c>
       <c r="O2" t="n">
         <v>566606.1503209858</v>
       </c>
       <c r="P2" t="n">
-        <v>566606.1503209857</v>
+        <v>566606.1503209859</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680992.9426618388</v>
+        <v>680992.9426618386</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.5290586867</v>
+        <v>133368.5290586871</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910617</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>170426.4165637111</v>
+        <v>170426.416563711</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
         <v>16707.03278084644</v>
@@ -26459,7 +26459,7 @@
         <v>15839.08652425871</v>
       </c>
       <c r="P4" t="n">
-        <v>15839.08652425871</v>
+        <v>15839.0865242587</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360138</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360138</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360138</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="I5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="J5" t="n">
         <v>81079.66231700632</v>
       </c>
       <c r="K5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="L5" t="n">
         <v>81079.66231700632</v>
@@ -26505,13 +26505,13 @@
         <v>81079.66231700632</v>
       </c>
       <c r="N5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="O5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="P5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700634</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211396.45407407</v>
+        <v>211396.4540740703</v>
       </c>
       <c r="C6" t="n">
         <v>292165.8856056178</v>
       </c>
       <c r="D6" t="n">
-        <v>292165.885605618</v>
+        <v>292165.8856056175</v>
       </c>
       <c r="E6" t="n">
-        <v>-247020.5138635765</v>
+        <v>-243745.1785478295</v>
       </c>
       <c r="F6" t="n">
-        <v>433972.4287982624</v>
+        <v>437247.7641140093</v>
       </c>
       <c r="G6" t="n">
-        <v>433972.4287982624</v>
+        <v>437247.764114009</v>
       </c>
       <c r="H6" t="n">
-        <v>433972.4287982624</v>
+        <v>437247.7641140093</v>
       </c>
       <c r="I6" t="n">
-        <v>334070.4459267168</v>
+        <v>336094.029771602</v>
       </c>
       <c r="J6" t="n">
-        <v>404379.0323862974</v>
+        <v>406402.6162311828</v>
       </c>
       <c r="K6" t="n">
-        <v>467438.9749854036</v>
+        <v>469462.5588302889</v>
       </c>
       <c r="L6" t="n">
-        <v>467438.9749854035</v>
+        <v>469462.5588302889</v>
       </c>
       <c r="M6" t="n">
-        <v>297012.5584216925</v>
+        <v>299036.1422665782</v>
       </c>
       <c r="N6" t="n">
-        <v>467438.9749854037</v>
+        <v>469462.5588302891</v>
       </c>
       <c r="O6" t="n">
-        <v>467438.9749854036</v>
+        <v>469462.5588302891</v>
       </c>
       <c r="P6" t="n">
-        <v>467438.9749854035</v>
+        <v>469462.5588302892</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="I3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.123337099278</v>
       </c>
       <c r="J3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.123337099278</v>
       </c>
       <c r="K3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.123337099278</v>
       </c>
       <c r="L3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.123337099278</v>
       </c>
       <c r="M3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.123337099278</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.123337099278</v>
       </c>
       <c r="O3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992783</v>
       </c>
       <c r="P3" t="n">
-        <v>717.1233370992778</v>
+        <v>717.1233370992783</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827565</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827564</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827564</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="I4" t="n">
         <v>1076.420617898718</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612143</v>
+        <v>123.6472367612147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>683.8831502050973</v>
+        <v>683.8831502050971</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159618</v>
+        <v>151.5231788159622</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050973</v>
+        <v>683.8831502050971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050973</v>
+        <v>683.8831502050971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
+        <v>181.9207275776204</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>174.288448637476</v>
-      </c>
       <c r="H2" t="n">
-        <v>107.548612162413</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>100.9042853966529</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.32410557691739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7082848322977</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>132.1558225206525</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>15.59069763800886</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,22 +27855,22 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>314.9811766033053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>164.4321425566175</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>50.65854613230397</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>197.9358824681333</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>36.78129424836629</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
         <v>120.604421484738</v>
@@ -31846,34 +31846,34 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S13" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
         <v>120.604421484738</v>
@@ -32083,34 +32083,34 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H17" t="n">
         <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712521</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359659</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
         <v>0.1908666855358594</v>
@@ -32320,16 +32320,16 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M18" t="n">
         <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P18" t="n">
         <v>243.7619099671567</v>
@@ -32338,16 +32338,16 @@
         <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S18" t="n">
         <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,16 +32387,16 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206991</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
         <v>159.1099695889949</v>
@@ -32405,7 +32405,7 @@
         <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
         <v>151.2683017714133</v>
@@ -32414,19 +32414,19 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104759</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S19" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
         <v>120.604421484738</v>
@@ -32557,34 +32557,34 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,25 +32703,25 @@
         <v>2.882907887836291</v>
       </c>
       <c r="H23" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630343</v>
       </c>
       <c r="I23" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J23" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7166942373559</v>
+        <v>366.716694237356</v>
       </c>
       <c r="L23" t="n">
         <v>454.9444865097259</v>
       </c>
       <c r="M23" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N23" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O23" t="n">
         <v>485.7375463866773</v>
@@ -32730,19 +32730,19 @@
         <v>414.5657579057188</v>
       </c>
       <c r="Q23" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R23" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T23" t="n">
         <v>12.61992927900337</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I24" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235221</v>
       </c>
       <c r="J24" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K24" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809823</v>
       </c>
       <c r="L24" t="n">
         <v>334.9168943688657</v>
       </c>
       <c r="M24" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191065</v>
       </c>
       <c r="N24" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9980157323069</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P24" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q24" t="n">
         <v>196.8977132352584</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S24" t="n">
         <v>28.65110691146642</v>
@@ -32864,13 +32864,13 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I25" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728545</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K25" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L25" t="n">
         <v>192.2595910642884</v>
@@ -32891,16 +32891,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R25" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S25" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,25 +32940,25 @@
         <v>2.882907887836291</v>
       </c>
       <c r="H26" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630343</v>
       </c>
       <c r="I26" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J26" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K26" t="n">
-        <v>366.7166942373559</v>
+        <v>366.716694237356</v>
       </c>
       <c r="L26" t="n">
         <v>454.9444865097259</v>
       </c>
       <c r="M26" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N26" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O26" t="n">
         <v>485.7375463866773</v>
@@ -32967,19 +32967,19 @@
         <v>414.5657579057188</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R26" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S26" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T26" t="n">
         <v>12.61992927900337</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,34 +33022,34 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I27" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235221</v>
       </c>
       <c r="J27" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K27" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809823</v>
       </c>
       <c r="L27" t="n">
         <v>334.9168943688657</v>
       </c>
       <c r="M27" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191065</v>
       </c>
       <c r="N27" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O27" t="n">
-        <v>366.9980157323069</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P27" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q27" t="n">
         <v>196.8977132352584</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S27" t="n">
         <v>28.65110691146642</v>
@@ -33101,13 +33101,13 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I28" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728545</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K28" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L28" t="n">
         <v>192.2595910642884</v>
@@ -33128,16 +33128,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R28" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S28" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,25 +33177,25 @@
         <v>2.882907887836291</v>
       </c>
       <c r="H29" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630343</v>
       </c>
       <c r="I29" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J29" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K29" t="n">
-        <v>366.7166942373559</v>
+        <v>366.716694237356</v>
       </c>
       <c r="L29" t="n">
         <v>454.9444865097259</v>
       </c>
       <c r="M29" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N29" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O29" t="n">
         <v>485.7375463866773</v>
@@ -33204,19 +33204,19 @@
         <v>414.5657579057188</v>
       </c>
       <c r="Q29" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R29" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S29" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T29" t="n">
         <v>12.61992927900337</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,34 +33259,34 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I30" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235221</v>
       </c>
       <c r="J30" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K30" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809823</v>
       </c>
       <c r="L30" t="n">
         <v>334.9168943688657</v>
       </c>
       <c r="M30" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191065</v>
       </c>
       <c r="N30" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O30" t="n">
-        <v>366.9980157323069</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P30" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q30" t="n">
         <v>196.8977132352584</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S30" t="n">
         <v>28.65110691146642</v>
@@ -33338,13 +33338,13 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I31" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728545</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K31" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L31" t="n">
         <v>192.2595910642884</v>
@@ -33365,16 +33365,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R31" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S31" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,25 +33414,25 @@
         <v>2.882907887836291</v>
       </c>
       <c r="H32" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630343</v>
       </c>
       <c r="I32" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J32" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K32" t="n">
-        <v>366.7166942373559</v>
+        <v>366.716694237356</v>
       </c>
       <c r="L32" t="n">
         <v>454.9444865097259</v>
       </c>
       <c r="M32" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N32" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O32" t="n">
         <v>485.7375463866773</v>
@@ -33441,19 +33441,19 @@
         <v>414.5657579057188</v>
       </c>
       <c r="Q32" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R32" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S32" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T32" t="n">
         <v>12.61992927900337</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,34 +33496,34 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I33" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235221</v>
       </c>
       <c r="J33" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K33" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809823</v>
       </c>
       <c r="L33" t="n">
         <v>334.9168943688657</v>
       </c>
       <c r="M33" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191065</v>
       </c>
       <c r="N33" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O33" t="n">
-        <v>366.9980157323069</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P33" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q33" t="n">
         <v>196.8977132352584</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S33" t="n">
         <v>28.65110691146642</v>
@@ -33575,13 +33575,13 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I34" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728545</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K34" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L34" t="n">
         <v>192.2595910642884</v>
@@ -33602,16 +33602,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R34" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S34" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,25 +33651,25 @@
         <v>2.882907887836291</v>
       </c>
       <c r="H35" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630343</v>
       </c>
       <c r="I35" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J35" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7166942373559</v>
+        <v>366.716694237356</v>
       </c>
       <c r="L35" t="n">
         <v>454.9444865097259</v>
       </c>
       <c r="M35" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N35" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O35" t="n">
         <v>485.7375463866773</v>
@@ -33678,19 +33678,19 @@
         <v>414.5657579057188</v>
       </c>
       <c r="Q35" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R35" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S35" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T35" t="n">
         <v>12.61992927900337</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,34 +33733,34 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I36" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235221</v>
       </c>
       <c r="J36" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K36" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809823</v>
       </c>
       <c r="L36" t="n">
         <v>334.9168943688657</v>
       </c>
       <c r="M36" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191065</v>
       </c>
       <c r="N36" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O36" t="n">
-        <v>366.9980157323069</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P36" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q36" t="n">
         <v>196.8977132352584</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S36" t="n">
         <v>28.65110691146642</v>
@@ -33812,13 +33812,13 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I37" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728545</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K37" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L37" t="n">
         <v>192.2595910642884</v>
@@ -33839,16 +33839,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R37" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S37" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,25 +33888,25 @@
         <v>2.882907887836291</v>
       </c>
       <c r="H38" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630343</v>
       </c>
       <c r="I38" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J38" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K38" t="n">
-        <v>366.7166942373559</v>
+        <v>366.716694237356</v>
       </c>
       <c r="L38" t="n">
         <v>454.9444865097259</v>
       </c>
       <c r="M38" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N38" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O38" t="n">
         <v>485.7375463866773</v>
@@ -33915,19 +33915,19 @@
         <v>414.5657579057188</v>
       </c>
       <c r="Q38" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R38" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S38" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T38" t="n">
         <v>12.61992927900337</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,34 +33970,34 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I39" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235221</v>
       </c>
       <c r="J39" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K39" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809823</v>
       </c>
       <c r="L39" t="n">
         <v>334.9168943688657</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191065</v>
       </c>
       <c r="N39" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910386</v>
       </c>
       <c r="O39" t="n">
-        <v>366.9980157323069</v>
+        <v>366.998015732307</v>
       </c>
       <c r="P39" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417771</v>
       </c>
       <c r="Q39" t="n">
         <v>196.8977132352584</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S39" t="n">
         <v>28.65110691146642</v>
@@ -34049,13 +34049,13 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I40" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728545</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K40" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L40" t="n">
         <v>192.2595910642884</v>
@@ -34076,16 +34076,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R40" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S40" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.882907887836291</v>
+        <v>2.882907887836292</v>
       </c>
       <c r="H41" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630344</v>
       </c>
       <c r="I41" t="n">
-        <v>111.1433063458087</v>
+        <v>111.1433063458088</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373561</v>
       </c>
       <c r="L41" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097261</v>
       </c>
       <c r="M41" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600347</v>
       </c>
       <c r="N41" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963497</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866775</v>
       </c>
       <c r="P41" t="n">
-        <v>414.5657579057188</v>
+        <v>414.565757905719</v>
       </c>
       <c r="Q41" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R41" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092967</v>
       </c>
       <c r="S41" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406957</v>
       </c>
       <c r="T41" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900338</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.542491706213541</v>
+        <v>1.542491706213542</v>
       </c>
       <c r="H42" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106237</v>
       </c>
       <c r="I42" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235222</v>
       </c>
       <c r="J42" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K42" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809824</v>
       </c>
       <c r="L42" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688658</v>
       </c>
       <c r="M42" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191066</v>
       </c>
       <c r="N42" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910387</v>
       </c>
       <c r="O42" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323071</v>
       </c>
       <c r="P42" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417772</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352585</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525837</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146643</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360722</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1014797175140488</v>
+        <v>0.1014797175140489</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.293173230834763</v>
+        <v>1.293173230834764</v>
       </c>
       <c r="H43" t="n">
         <v>11.49748563414909</v>
       </c>
       <c r="I43" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728546</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001781</v>
       </c>
       <c r="K43" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L43" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642885</v>
       </c>
       <c r="M43" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934894</v>
       </c>
       <c r="N43" t="n">
-        <v>197.8907726785599</v>
+        <v>197.89077267856</v>
       </c>
       <c r="O43" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183538</v>
       </c>
       <c r="P43" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093245</v>
       </c>
       <c r="Q43" t="n">
         <v>108.285623901991</v>
       </c>
       <c r="R43" t="n">
-        <v>58.14577090644307</v>
+        <v>58.1457709064431</v>
       </c>
       <c r="S43" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T43" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748535</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.0705367216818963</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.882907887836291</v>
+        <v>2.882907887836292</v>
       </c>
       <c r="H44" t="n">
-        <v>29.52458040630342</v>
+        <v>29.52458040630344</v>
       </c>
       <c r="I44" t="n">
-        <v>111.1433063458087</v>
+        <v>111.1433063458088</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6832033452456</v>
+        <v>244.6832033452457</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7166942373559</v>
+        <v>366.7166942373561</v>
       </c>
       <c r="L44" t="n">
-        <v>454.9444865097258</v>
+        <v>454.9444865097261</v>
       </c>
       <c r="M44" t="n">
-        <v>506.2133996600344</v>
+        <v>506.2133996600347</v>
       </c>
       <c r="N44" t="n">
-        <v>514.4044616963494</v>
+        <v>514.4044616963497</v>
       </c>
       <c r="O44" t="n">
-        <v>485.7375463866772</v>
+        <v>485.7375463866775</v>
       </c>
       <c r="P44" t="n">
-        <v>414.5657579057187</v>
+        <v>414.565757905719</v>
       </c>
       <c r="Q44" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725816</v>
       </c>
       <c r="R44" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092967</v>
       </c>
       <c r="S44" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406957</v>
       </c>
       <c r="T44" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900338</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2306326310269032</v>
+        <v>0.2306326310269033</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.542491706213541</v>
+        <v>1.542491706213542</v>
       </c>
       <c r="H45" t="n">
-        <v>14.89722253106236</v>
+        <v>14.89722253106237</v>
       </c>
       <c r="I45" t="n">
-        <v>53.10771883235218</v>
+        <v>53.10771883235222</v>
       </c>
       <c r="J45" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K45" t="n">
-        <v>249.0785839809822</v>
+        <v>249.0785839809824</v>
       </c>
       <c r="L45" t="n">
-        <v>334.9168943688656</v>
+        <v>334.9168943688658</v>
       </c>
       <c r="M45" t="n">
-        <v>390.8322187191064</v>
+        <v>390.8322187191066</v>
       </c>
       <c r="N45" t="n">
-        <v>401.1763845910385</v>
+        <v>401.1763845910387</v>
       </c>
       <c r="O45" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323071</v>
       </c>
       <c r="P45" t="n">
-        <v>294.548262741777</v>
+        <v>294.5482627417772</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352585</v>
       </c>
       <c r="R45" t="n">
-        <v>95.76979207525831</v>
+        <v>95.76979207525837</v>
       </c>
       <c r="S45" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146643</v>
       </c>
       <c r="T45" t="n">
-        <v>6.217324026360718</v>
+        <v>6.217324026360722</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1014797175140488</v>
+        <v>0.1014797175140489</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.293173230834763</v>
+        <v>1.293173230834764</v>
       </c>
       <c r="H46" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I46" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728546</v>
       </c>
       <c r="J46" t="n">
-        <v>91.42734742001775</v>
+        <v>91.42734742001781</v>
       </c>
       <c r="K46" t="n">
-        <v>150.2432171824388</v>
+        <v>150.2432171824389</v>
       </c>
       <c r="L46" t="n">
-        <v>192.2595910642884</v>
+        <v>192.2595910642885</v>
       </c>
       <c r="M46" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934894</v>
       </c>
       <c r="N46" t="n">
-        <v>197.8907726785598</v>
+        <v>197.89077267856</v>
       </c>
       <c r="O46" t="n">
-        <v>182.7841581183537</v>
+        <v>182.7841581183538</v>
       </c>
       <c r="P46" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093245</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R46" t="n">
-        <v>58.14577090644306</v>
+        <v>58.1457709064431</v>
       </c>
       <c r="S46" t="n">
-        <v>22.53648257736582</v>
+        <v>22.53648257736583</v>
       </c>
       <c r="T46" t="n">
-        <v>5.525376531748532</v>
+        <v>5.525376531748535</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07053672168189626</v>
+        <v>0.0705367216818963</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N9" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>84.21201855861554</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122262</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N12" t="n">
         <v>680.0057497502846</v>
@@ -35506,10 +35506,10 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528265</v>
+        <v>326.9486209161807</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.9666072747238</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268336</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122262</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N15" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P15" t="n">
-        <v>125.708794178759</v>
+        <v>255.1058764429101</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.9666072747238</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730411</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268333</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>138.6157555714073</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122261</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502846</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>467.3215277439625</v>
       </c>
       <c r="P18" t="n">
-        <v>166.6140215878887</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105729</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
         <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
         <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3104407622263</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N21" t="n">
-        <v>248.7689815793721</v>
+        <v>578.7040994737013</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269919</v>
@@ -36220,7 +36220,7 @@
         <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K23" t="n">
-        <v>470.7722557635401</v>
+        <v>470.7722557635402</v>
       </c>
       <c r="L23" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M23" t="n">
         <v>725.3806999255943</v>
       </c>
       <c r="N23" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O23" t="n">
         <v>636.4395162277359</v>
@@ -36378,10 +36378,10 @@
         <v>505.1314703219319</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R23" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>144.9850483384171</v>
+        <v>118.3027407743336</v>
       </c>
       <c r="K24" t="n">
         <v>375.7023820192019</v>
@@ -36445,16 +36445,16 @@
         <v>196.3625145889915</v>
       </c>
       <c r="M24" t="n">
-        <v>454.998590806118</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N24" t="n">
-        <v>749.1770468512588</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O24" t="n">
-        <v>224.4017712878625</v>
+        <v>618.264090564592</v>
       </c>
       <c r="P24" t="n">
-        <v>160.5738553274468</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q24" t="n">
         <v>266.993226885086</v>
@@ -36521,7 +36521,7 @@
         <v>127.973725356556</v>
       </c>
       <c r="L25" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M25" t="n">
         <v>242.2946589553299</v>
@@ -36536,7 +36536,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029657</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K26" t="n">
-        <v>470.7722557635401</v>
+        <v>470.7722557635402</v>
       </c>
       <c r="L26" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M26" t="n">
         <v>725.3806999255943</v>
       </c>
       <c r="N26" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O26" t="n">
         <v>636.4395162277359</v>
@@ -36615,10 +36615,10 @@
         <v>505.1314703219319</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R26" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.3027407743337</v>
+        <v>141.3247147476037</v>
       </c>
       <c r="K27" t="n">
         <v>375.7023820192019</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3625145889915</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M27" t="n">
-        <v>248.6981847970881</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N27" t="n">
         <v>269.8346725077052</v>
       </c>
       <c r="O27" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P27" t="n">
-        <v>479.0366239673839</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q27" t="n">
         <v>266.993226885086</v>
@@ -36758,7 +36758,7 @@
         <v>127.973725356556</v>
       </c>
       <c r="L28" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M28" t="n">
         <v>242.2946589553299</v>
@@ -36773,7 +36773,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029657</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K29" t="n">
-        <v>470.7722557635401</v>
+        <v>470.7722557635402</v>
       </c>
       <c r="L29" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M29" t="n">
         <v>725.3806999255943</v>
       </c>
       <c r="N29" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O29" t="n">
         <v>636.4395162277359</v>
@@ -36852,10 +36852,10 @@
         <v>505.1314703219319</v>
       </c>
       <c r="Q29" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R29" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.3027407743337</v>
+        <v>141.3247147476037</v>
       </c>
       <c r="K30" t="n">
         <v>375.7023820192019</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3625145889915</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M30" t="n">
-        <v>248.6981847970881</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N30" t="n">
         <v>269.8346725077052</v>
       </c>
       <c r="O30" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P30" t="n">
-        <v>479.0366239673839</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q30" t="n">
         <v>266.993226885086</v>
@@ -36995,7 +36995,7 @@
         <v>127.973725356556</v>
       </c>
       <c r="L31" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M31" t="n">
         <v>242.2946589553299</v>
@@ -37010,7 +37010,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029657</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K32" t="n">
-        <v>470.7722557635401</v>
+        <v>470.7722557635402</v>
       </c>
       <c r="L32" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M32" t="n">
         <v>725.3806999255943</v>
       </c>
       <c r="N32" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O32" t="n">
         <v>636.4395162277359</v>
@@ -37089,10 +37089,10 @@
         <v>505.1314703219319</v>
       </c>
       <c r="Q32" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R32" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.9850483384171</v>
+        <v>141.3247147476037</v>
       </c>
       <c r="K33" t="n">
         <v>375.7023820192019</v>
       </c>
       <c r="L33" t="n">
-        <v>567.2028598924506</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M33" t="n">
-        <v>248.6981847970881</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N33" t="n">
         <v>269.8346725077052</v>
@@ -37165,7 +37165,7 @@
         <v>224.4017712878625</v>
       </c>
       <c r="P33" t="n">
-        <v>475.3762903765706</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q33" t="n">
         <v>266.993226885086</v>
@@ -37232,7 +37232,7 @@
         <v>127.973725356556</v>
       </c>
       <c r="L34" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M34" t="n">
         <v>242.2946589553299</v>
@@ -37247,7 +37247,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029657</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K35" t="n">
-        <v>470.7722557635401</v>
+        <v>470.7722557635402</v>
       </c>
       <c r="L35" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M35" t="n">
         <v>725.3806999255943</v>
       </c>
       <c r="N35" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O35" t="n">
         <v>636.4395162277359</v>
@@ -37326,10 +37326,10 @@
         <v>505.1314703219319</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R35" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.89401299800829</v>
+        <v>141.3247147476037</v>
       </c>
       <c r="K36" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L36" t="n">
-        <v>412.9941842678327</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M36" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N36" t="n">
         <v>269.8346725077052</v>
       </c>
       <c r="O36" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P36" t="n">
-        <v>160.5738553274468</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q36" t="n">
         <v>266.993226885086</v>
@@ -37469,7 +37469,7 @@
         <v>127.973725356556</v>
       </c>
       <c r="L37" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M37" t="n">
         <v>242.2946589553299</v>
@@ -37484,7 +37484,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029657</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K38" t="n">
-        <v>470.7722557635401</v>
+        <v>470.7722557635402</v>
       </c>
       <c r="L38" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M38" t="n">
         <v>725.3806999255943</v>
       </c>
       <c r="N38" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O38" t="n">
         <v>636.4395162277359</v>
@@ -37563,10 +37563,10 @@
         <v>505.1314703219319</v>
       </c>
       <c r="Q38" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R38" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.9850483384171</v>
+        <v>95.65767833329579</v>
       </c>
       <c r="K39" t="n">
         <v>375.7023820192019</v>
@@ -37630,10 +37630,10 @@
         <v>196.3625145889915</v>
       </c>
       <c r="M39" t="n">
-        <v>714.403248547088</v>
+        <v>714.4032485470881</v>
       </c>
       <c r="N39" t="n">
-        <v>699.8496768461378</v>
+        <v>749.1770468512589</v>
       </c>
       <c r="O39" t="n">
         <v>224.4017712878625</v>
@@ -37642,7 +37642,7 @@
         <v>160.5738553274468</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.91593914923686</v>
+        <v>56.91593914923689</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>127.973725356556</v>
       </c>
       <c r="L40" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M40" t="n">
         <v>242.2946589553299</v>
@@ -37721,7 +37721,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029657</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>232.7339139906331</v>
+        <v>232.7339139906332</v>
       </c>
       <c r="K41" t="n">
-        <v>470.7722557635401</v>
+        <v>470.7722557635403</v>
       </c>
       <c r="L41" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901893</v>
       </c>
       <c r="M41" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255945</v>
       </c>
       <c r="N41" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117429</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277361</v>
       </c>
       <c r="P41" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219321</v>
       </c>
       <c r="Q41" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R41" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814698</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.9850483384171</v>
+        <v>95.65767833329544</v>
       </c>
       <c r="K42" t="n">
-        <v>116.2977242782319</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L42" t="n">
-        <v>196.3625145889915</v>
+        <v>196.3625145889916</v>
       </c>
       <c r="M42" t="n">
-        <v>714.403248547088</v>
+        <v>714.4032485470882</v>
       </c>
       <c r="N42" t="n">
-        <v>749.1770468512588</v>
+        <v>749.1770468512589</v>
       </c>
       <c r="O42" t="n">
-        <v>224.4017712878625</v>
+        <v>224.4017712878626</v>
       </c>
       <c r="P42" t="n">
-        <v>160.5738553274468</v>
+        <v>160.5738553274469</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.993226885086</v>
+        <v>56.91593914923695</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565561</v>
       </c>
       <c r="L43" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M43" t="n">
-        <v>242.2946589553299</v>
+        <v>242.29465895533</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577886</v>
       </c>
       <c r="O43" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323935</v>
       </c>
       <c r="P43" t="n">
-        <v>153.6819834742179</v>
+        <v>153.681983474218</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029663</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>232.7339139906331</v>
+        <v>232.7339139906332</v>
       </c>
       <c r="K44" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635403</v>
       </c>
       <c r="L44" t="n">
-        <v>636.839286090189</v>
+        <v>636.8392860901893</v>
       </c>
       <c r="M44" t="n">
-        <v>725.3806999255942</v>
+        <v>725.3806999255945</v>
       </c>
       <c r="N44" t="n">
-        <v>722.3383225117426</v>
+        <v>722.3383225117429</v>
       </c>
       <c r="O44" t="n">
-        <v>636.4395162277358</v>
+        <v>636.4395162277361</v>
       </c>
       <c r="P44" t="n">
-        <v>505.1314703219318</v>
+        <v>505.1314703219321</v>
       </c>
       <c r="Q44" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580368</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814687</v>
+        <v>31.22434466814604</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89401299800826</v>
+        <v>141.3247147476031</v>
       </c>
       <c r="K45" t="n">
-        <v>167.1057571178548</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L45" t="n">
-        <v>567.2028598924505</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M45" t="n">
-        <v>714.403248547088</v>
+        <v>248.6981847970883</v>
       </c>
       <c r="N45" t="n">
-        <v>269.8346725077051</v>
+        <v>269.8346725077054</v>
       </c>
       <c r="O45" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878626</v>
       </c>
       <c r="P45" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673841</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.91593914923683</v>
+        <v>266.9932268850861</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565561</v>
       </c>
       <c r="L46" t="n">
-        <v>219.8496163246045</v>
+        <v>219.8496163246046</v>
       </c>
       <c r="M46" t="n">
-        <v>242.2946589553299</v>
+        <v>242.29465895533</v>
       </c>
       <c r="N46" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577886</v>
       </c>
       <c r="O46" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323935</v>
       </c>
       <c r="P46" t="n">
-        <v>153.6819834742179</v>
+        <v>153.681983474218</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.12358065029656</v>
+        <v>22.12358065029663</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
